--- a/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-mp.xlsx
+++ b/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-mp.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carinefranklin/Documents/IUT COURS/serious game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOUVEAU\Desktop\Genius\#AUTRES\Formulaires De Renseignement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DA97E3-5515-443D-AB68-59DE9B06DC53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="18760" windowHeight="9620" tabRatio="500"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>Informations de la formation</t>
   </si>
@@ -62,9 +69,6 @@
     <t>Formation</t>
   </si>
   <si>
-    <t>DUT</t>
-  </si>
-  <si>
     <t>Port</t>
   </si>
   <si>
@@ -348,13 +352,31 @@
   </si>
   <si>
     <t>Test en traction d'éprouvettes en acier</t>
+  </si>
+  <si>
+    <t>Id diplom :</t>
+  </si>
+  <si>
+    <t>Id skill :</t>
+  </si>
+  <si>
+    <t>Diplôme</t>
+  </si>
+  <si>
+    <t>Compétence</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>DUT MP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -364,18 +386,33 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,8 +443,14 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -415,24 +458,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,17 +621,20 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A10:D14" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A10:D14" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Lieu 1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Quartier 1"/>
-    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lieu 1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Quartier 1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -789,753 +902,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
-    <col min="6" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1328125" customWidth="1"/>
+    <col min="3" max="3" width="31.46484375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="9" width="14.46484375" customWidth="1"/>
+    <col min="10" max="10" width="23.796875" customWidth="1"/>
     <col min="11" max="11" width="33.33203125" customWidth="1"/>
-    <col min="12" max="1025" width="14.5" customWidth="1"/>
+    <col min="12" max="1025" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I3" s="3" t="s">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="9">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="D4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="9">
+        <v>57</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J6" s="3" t="s">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J9" s="3" t="s">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="J14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I15" s="3" t="s">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J16" s="3" t="s">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="J19" s="3" t="s">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="10">
+        <f>E4</f>
+        <v>57</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="10">
+        <f>E4+1</f>
+        <v>58</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="10">
+        <f>D22+1</f>
+        <v>59</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="10">
+        <f t="shared" ref="D24:D25" si="0">D23+1</f>
+        <v>60</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="J30" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="str">
+      <c r="I32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="str">
         <f>B21</f>
         <v>Metrologie</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="str">
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="str">
         <f>B22</f>
         <v>Pilotage d’instrument</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="str">
+      <c r="B34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="str">
         <f>B23</f>
         <v>Matériaux</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="str">
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="str">
         <f>B24</f>
         <v>Systèmes électroniques</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="str">
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="str">
         <f>B25</f>
         <v>Thermique</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="3" t="s">
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="4" t="s">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <f>D21</f>
+        <v>57</v>
+      </c>
+      <c r="B41" s="11">
+        <f>D22</f>
+        <v>58</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <f>D21</f>
+        <v>57</v>
+      </c>
+      <c r="B42" s="11">
+        <f>D23</f>
+        <v>59</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="str">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <f>D21</f>
+        <v>57</v>
+      </c>
+      <c r="B43" s="11">
+        <f>D24</f>
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <f>D21</f>
+        <v>57</v>
+      </c>
+      <c r="B44" s="11">
+        <f>D25</f>
+        <v>61</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
+        <f>D22</f>
+        <v>58</v>
+      </c>
+      <c r="B45" s="11">
+        <f>D23</f>
+        <v>59</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <f>D22</f>
+        <v>58</v>
+      </c>
+      <c r="B46" s="11">
+        <f>D24</f>
+        <v>60</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <f>D22</f>
+        <v>58</v>
+      </c>
+      <c r="B47" s="11">
+        <f>D25</f>
+        <v>61</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11">
+        <f>D23</f>
+        <v>59</v>
+      </c>
+      <c r="B48" s="11">
+        <f>D24</f>
+        <v>60</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
+        <f>D23</f>
+        <v>59</v>
+      </c>
+      <c r="B49" s="11">
+        <f>D25</f>
+        <v>61</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="11">
+        <f>D24</f>
+        <v>60</v>
+      </c>
+      <c r="B50" s="11">
+        <f>D25</f>
+        <v>61</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="str">
         <f>B21</f>
         <v>Metrologie</v>
       </c>
-      <c r="B41" s="8" t="str">
+      <c r="B54" s="4" t="str">
         <f>B22</f>
         <v>Pilotage d’instrument</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="str">
+      <c r="C54" s="4" t="str">
+        <f>B23</f>
+        <v>Matériaux</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <f>B24</f>
+        <v>Systèmes électroniques</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="str">
         <f>B21</f>
         <v>Metrologie</v>
       </c>
-      <c r="B42" s="8" t="str">
+      <c r="B55" s="4" t="str">
+        <f>B22</f>
+        <v>Pilotage d’instrument</v>
+      </c>
+      <c r="C55" s="4" t="str">
         <f>B23</f>
         <v>Matériaux</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="str">
+      <c r="D55" s="4" t="str">
+        <f>B25</f>
+        <v>Thermique</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="str">
         <f>B21</f>
         <v>Metrologie</v>
       </c>
-      <c r="B43" s="8" t="str">
+      <c r="B56" s="4" t="str">
+        <f>B22</f>
+        <v>Pilotage d’instrument</v>
+      </c>
+      <c r="C56" s="4" t="str">
         <f>B24</f>
         <v>Systèmes électroniques</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="str">
+      <c r="D56" s="4" t="str">
+        <f>B25</f>
+        <v>Thermique</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="str">
         <f>B21</f>
         <v>Metrologie</v>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B57" s="4" t="str">
+        <f>B23</f>
+        <v>Matériaux</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f>B24</f>
+        <v>Systèmes électroniques</v>
+      </c>
+      <c r="D57" s="4" t="str">
         <f>B25</f>
         <v>Thermique</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="str">
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="str">
         <f>B22</f>
         <v>Pilotage d’instrument</v>
       </c>
-      <c r="B45" s="8" t="str">
+      <c r="B58" s="4" t="str">
         <f>B23</f>
         <v>Matériaux</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="str">
+      <c r="C58" s="4" t="str">
+        <f>B24</f>
+        <v>Systèmes électroniques</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <f>B25</f>
+        <v>Thermique</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="str">
+        <f>B21</f>
+        <v>Metrologie</v>
+      </c>
+      <c r="B62" s="4" t="str">
         <f>B22</f>
         <v>Pilotage d’instrument</v>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="C62" s="4" t="str">
+        <f>B23</f>
+        <v>Matériaux</v>
+      </c>
+      <c r="D62" s="4" t="str">
         <f>B24</f>
         <v>Systèmes électroniques</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="str">
-        <f>B22</f>
-        <v>Pilotage d’instrument</v>
-      </c>
-      <c r="B47" s="8" t="str">
+      <c r="E62" s="4" t="str">
         <f>B25</f>
         <v>Thermique</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="str">
-        <f>B23</f>
-        <v>Matériaux</v>
-      </c>
-      <c r="B48" s="8" t="str">
-        <f>B24</f>
-        <v>Systèmes électroniques</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="str">
-        <f>B23</f>
-        <v>Matériaux</v>
-      </c>
-      <c r="B49" s="8" t="str">
-        <f>B25</f>
-        <v>Thermique</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="str">
-        <f>B24</f>
-        <v>Systèmes électroniques</v>
-      </c>
-      <c r="B50" s="8" t="str">
-        <f>B25</f>
-        <v>Thermique</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="str">
-        <f>B21</f>
-        <v>Metrologie</v>
-      </c>
-      <c r="B54" s="8" t="str">
-        <f>B22</f>
-        <v>Pilotage d’instrument</v>
-      </c>
-      <c r="C54" s="8" t="str">
-        <f>B23</f>
-        <v>Matériaux</v>
-      </c>
-      <c r="D54" s="8" t="str">
-        <f>B24</f>
-        <v>Systèmes électroniques</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="8" t="str">
-        <f>B21</f>
-        <v>Metrologie</v>
-      </c>
-      <c r="B55" s="8" t="str">
-        <f>B22</f>
-        <v>Pilotage d’instrument</v>
-      </c>
-      <c r="C55" s="8" t="str">
-        <f>B23</f>
-        <v>Matériaux</v>
-      </c>
-      <c r="D55" s="8" t="str">
-        <f>B25</f>
-        <v>Thermique</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="str">
-        <f>B21</f>
-        <v>Metrologie</v>
-      </c>
-      <c r="B56" s="8" t="str">
-        <f>B22</f>
-        <v>Pilotage d’instrument</v>
-      </c>
-      <c r="C56" s="8" t="str">
-        <f>B24</f>
-        <v>Systèmes électroniques</v>
-      </c>
-      <c r="D56" s="8" t="str">
-        <f>B25</f>
-        <v>Thermique</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="str">
-        <f>B21</f>
-        <v>Metrologie</v>
-      </c>
-      <c r="B57" s="8" t="str">
-        <f>B23</f>
-        <v>Matériaux</v>
-      </c>
-      <c r="C57" s="8" t="str">
-        <f>B24</f>
-        <v>Systèmes électroniques</v>
-      </c>
-      <c r="D57" s="8" t="str">
-        <f>B25</f>
-        <v>Thermique</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="str">
-        <f>B22</f>
-        <v>Pilotage d’instrument</v>
-      </c>
-      <c r="B58" s="8" t="str">
-        <f>B23</f>
-        <v>Matériaux</v>
-      </c>
-      <c r="C58" s="8" t="str">
-        <f>B24</f>
-        <v>Systèmes électroniques</v>
-      </c>
-      <c r="D58" s="8" t="str">
-        <f>B25</f>
-        <v>Thermique</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+      <c r="F62" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="str">
-        <f>B21</f>
-        <v>Metrologie</v>
-      </c>
-      <c r="B62" s="5" t="str">
-        <f>B22</f>
-        <v>Pilotage d’instrument</v>
-      </c>
-      <c r="C62" s="5" t="str">
-        <f>B23</f>
-        <v>Matériaux</v>
-      </c>
-      <c r="D62" s="5" t="str">
-        <f>B24</f>
-        <v>Systèmes électroniques</v>
-      </c>
-      <c r="E62" s="5" t="str">
-        <f>B25</f>
-        <v>Thermique</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>103</v>
+    </row>
+    <row r="65" spans="1:2" ht="14.65" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="13" t="str">
+        <f>IF(B5="","",CONCATENATE("INSERT INTO diplom (DiplomName) VALUES (""",B5,""");"))</f>
+        <v>INSERT INTO diplom (DiplomName) VALUES ("DUT MP");</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.65" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:2" ht="14.65" x14ac:dyDescent="0.35">
+      <c r="A67" s="14"/>
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="15"/>
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="13"/>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="13"/>
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="8" t="str">
+        <f>IF(B21="","",CONCATENATE("INSERT INTO skill (SkillName, SkillDescription) VALUES (""",B21,""",""",C21,""");"))</f>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Metrologie","Choisir un instrument de mesure dans un contexte donné.");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="13"/>
+      <c r="B72" s="8" t="str">
+        <f t="shared" ref="B72:B75" si="1">IF(B22="","",CONCATENATE("INSERT INTO skill (SkillName, SkillDescription) VALUES (""",B22,""",""",C22,""");"))</f>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Pilotage d’instrument","Réaliser un interfaçage homme-machine.");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="13"/>
+      <c r="B73" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Matériaux","Connaître les matériaux, leurs propriétés et leurs utilisations.");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="13"/>
+      <c r="B74" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Systèmes électroniques","Utiliser les composants actifs, leurs caractéristiques et les montages élecroniques associés.");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="13"/>
+      <c r="B75" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO skill (SkillName, SkillDescription) VALUES ("Thermique","Connaître les diverses machines thermiques et leurs performances.");</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="13" t="str">
+        <f>CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES (""",B33,""",1,",D21,");")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Gestion d’un parc d’instrument",1,57);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13" t="str">
+        <f t="shared" ref="B77:B80" si="2">CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES (""",B34,""",1,",D22,");")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Analyse et mise en œuvre d’un bus d’instrumentation",1,58);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Comparer les polymères biodégradables",1,59);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Démodulation d’une onde radio AM",1,60);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1) VALUES ("Optimisation d’une pompe à chaleur",1,61);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13" t="str">
+        <f>IF(C41&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES (""",C41,""",2,",A41,",",B41,",""",D41,""");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="str">
+        <f t="shared" ref="B83:B90" si="3">IF(C42&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES (""",C42,""",2,",A42,",",B42,",""",D42,""");"),"")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES ("Test en traction d'éprouvettes en acier",2,57,59,"Technicien métallurgiste");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES ("Réponse en fréquence d’un filtre passe-bande",2,57,60,"Technicien ondes-radio");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES ("Programmation d’une pompe à chaleur",2,58,61,"Chauffagiste");</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, AssociatedJob) VALUES ("Isolation d’un batiment",2,59,61,"Technicien génie civil");</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13" t="str">
+        <f>IF(E54&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E54,""",3,",D21,",",D22,",",D23,",",D24,",""",F54,""");"),"")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES ("Dimensionnement panneaux solaires",3,57,58,59,60,"Opérateur fabrication de panneaux photovoltaïques");</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13" t="str">
+        <f>IF(E55&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E55,""",3,",D22,",",D23,",",D24,",",D25,",""",F55,""");"),"")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES ("Labellisation Maison passive",3,58,59,60,61,"Expert domotique");</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13" t="str">
+        <f>IF(E56&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E56,""",3,",D22,",",D23,",",D24,",",D25,",""",F56,""");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13" t="str">
+        <f>IF(E57&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E57,""",3,",D22,",",D23,",",D24,",",D25,",""",F57,""");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13" t="str">
+        <f>IF(E58&gt;0,CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, AssociatedJob) VALUES (""",E58,""",3,",D22,",",D23,",",D24,",",D25,",""",F58,""");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13" t="str">
+        <f>CONCATENATE("INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, IDSkill5, AssociatedJob) VALUES (""",F62,""",4,",D21,",",D22,",",D23,",",D24,",",D25,",""",G62,""");")</f>
+        <v>INSERT INTO mission (MissionName, IDRank, IDSkill1, IDSkill2, IDSkill3, IDSkill4, IDSkill5, AssociatedJob) VALUES ("Réalisation d’une salle à hygrométrie contrôlée pour un musée",4,57,58,59,60,61,"Coordinateur de chantier");</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+    </row>
+    <row r="100" spans="1:2" ht="14.65" x14ac:dyDescent="0.35">
+      <c r="A100" s="12"/>
+      <c r="B100" s="13" t="str">
+        <f>CONCATENATE("INSERT INTO exam (ExamName, IDDiplom, IDRank, IDSkillSlot1, IDSkillSlot2, IDSkillSlot3, IDSkillSlot4, IDSkillSlot5) VALUES (""",B5,""",",E3,",4,",D21,",",D22,",",D23,",",D24,",",D25,");")</f>
+        <v>INSERT INTO exam (ExamName, IDDiplom, IDRank, IDSkillSlot1, IDSkillSlot2, IDSkillSlot3, IDSkillSlot4, IDSkillSlot5) VALUES ("DUT MP",12,4,57,58,59,60,61);</v>
       </c>
     </row>
   </sheetData>
